--- a/Test Data/TC_172_Verify_Progress_Bar_Indicator_For_IS_Units.xlsx
+++ b/Test Data/TC_172_Verify_Progress_Bar_Indicator_For_IS_Units.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3853243-FCCF-4EA3-A666-83DCEEE41DB0}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12600"/>
   </bookViews>
   <sheets>
     <sheet name="Add EXI Devices Loop A_FIM" sheetId="6" r:id="rId1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="31">
   <si>
     <t>Color Codes</t>
   </si>
@@ -109,12 +108,21 @@
   </si>
   <si>
     <t>NGC-237/TC-172</t>
+  </si>
+  <si>
+    <t>Labelname</t>
+  </si>
+  <si>
+    <t>Exi800 - 1</t>
+  </si>
+  <si>
+    <t>Exi800 - 2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -516,11 +524,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -541,7 +549,7 @@
     <col min="14" max="14" width="12.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="15" t="s">
         <v>1</v>
       </c>
@@ -549,7 +557,7 @@
       <c r="C1" s="15"/>
       <c r="D1" s="15"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>2</v>
       </c>
@@ -564,7 +572,7 @@
       <c r="J2" s="2"/>
       <c r="K2" s="6"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
         <v>3</v>
       </c>
@@ -578,7 +586,7 @@
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>5</v>
       </c>
@@ -598,7 +606,7 @@
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C5" s="4"/>
       <c r="D5" s="9" t="s">
         <v>7</v>
@@ -606,12 +614,12 @@
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
     </row>
-    <row r="7" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A7" s="11" t="s">
         <v>8</v>
       </c>
@@ -645,8 +653,11 @@
       <c r="K7" s="13" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L7" s="13" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>14</v>
       </c>
@@ -680,8 +691,11 @@
       <c r="K8" s="4" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L8" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
         <v>14</v>
       </c>
@@ -714,6 +728,9 @@
       </c>
       <c r="K9" s="4" t="s">
         <v>26</v>
+      </c>
+      <c r="L9" s="4" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
